--- a/телефоны.xlsx
+++ b/телефоны.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -447,203 +447,13 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="201"/>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>79025357617</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
